--- a/Ensamblajes.xlsx
+++ b/Ensamblajes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEC\Semestre IV\Analisis de algortimos\SegundoProyectoAn-lisis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\IV Semestre\Analisis de Algoritmos\Proyectos\Segundo Proyecto\SegundoProyectoAnálisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67853709-AC22-45C8-860D-B2DFF6D1932C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E390DB06-666B-48D5-BFF6-7A197F28CB67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15540" yWindow="6360" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,14 +66,14 @@
     <t>36,37,39</t>
   </si>
   <si>
-    <t>50-40</t>
+    <t>56,59,40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +83,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,7 +115,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -133,7 +140,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -145,28 +154,8 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -254,11 +243,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -274,49 +305,61 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -599,26 +642,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T63"/>
+  <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="121" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="2.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
-    <col min="9" max="9" width="3.5546875" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1"/>
-    <col min="13" max="13" width="3.33203125" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="2.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -638,75 +681,75 @@
       <c r="Q1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="9"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="19"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="9"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="19"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="M3" s="3"/>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="5"/>
@@ -714,987 +757,867 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="12">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="9">
         <v>30</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="12">
+      <c r="F4" s="9">
         <v>1</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="9">
         <v>10</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="14">
+      <c r="J4" s="11">
         <v>1</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="11">
         <v>10</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="12" t="s">
         <v>3</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="12">
+      <c r="N4" s="20">
         <v>1</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="11">
         <v>10</v>
       </c>
       <c r="P4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="12">
-        <v>31</v>
-      </c>
-      <c r="R4" s="19">
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11">
+        <v>20</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="11">
+        <v>2</v>
+      </c>
+      <c r="G5" s="11">
+        <v>20</v>
+      </c>
+      <c r="H5" s="12">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="11">
+        <v>2</v>
+      </c>
+      <c r="K5" s="11">
+        <v>20</v>
+      </c>
+      <c r="L5" s="12">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="21">
+        <v>2</v>
+      </c>
+      <c r="O5" s="11">
+        <v>20</v>
+      </c>
+      <c r="P5" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="11">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11">
+        <v>15</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="11">
+        <v>3</v>
+      </c>
+      <c r="G6" s="11">
+        <v>25</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="11">
+        <v>3</v>
+      </c>
+      <c r="K6" s="11">
+        <v>25</v>
+      </c>
+      <c r="L6" s="12">
+        <v>2</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="21">
+        <v>3</v>
+      </c>
+      <c r="O6" s="11">
+        <v>25</v>
+      </c>
+      <c r="P6" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="11">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11">
+        <v>60</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="11">
+        <v>4</v>
+      </c>
+      <c r="G7" s="11">
+        <v>15</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="11">
+        <v>4</v>
+      </c>
+      <c r="K7" s="11">
+        <v>15</v>
+      </c>
+      <c r="L7" s="12">
+        <v>3</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="21">
+        <v>4</v>
+      </c>
+      <c r="O7" s="11">
+        <v>15</v>
+      </c>
+      <c r="P7" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="11">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11">
+        <v>70</v>
+      </c>
+      <c r="D8" s="12">
+        <v>4.3</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="11">
+        <v>5</v>
+      </c>
+      <c r="G8" s="11">
         <v>30</v>
       </c>
-      <c r="S4" s="12">
+      <c r="H8" s="12">
+        <v>2</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="11">
+        <v>5</v>
+      </c>
+      <c r="K8" s="11">
         <v>30</v>
       </c>
-      <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="14">
+      <c r="L8" s="12">
         <v>2</v>
       </c>
-      <c r="C5" s="14">
+      <c r="M8" s="3"/>
+      <c r="N8" s="21">
+        <v>5</v>
+      </c>
+      <c r="O8" s="11">
+        <v>30</v>
+      </c>
+      <c r="P8" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="11">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11">
+        <v>30</v>
+      </c>
+      <c r="D9" s="15">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="11">
+        <v>6</v>
+      </c>
+      <c r="G9" s="11">
+        <v>40</v>
+      </c>
+      <c r="H9" s="12">
+        <v>2</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="11">
+        <v>6</v>
+      </c>
+      <c r="K9" s="11">
+        <v>40</v>
+      </c>
+      <c r="L9" s="12">
+        <v>2</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="21">
+        <v>6</v>
+      </c>
+      <c r="O9" s="11">
+        <v>40</v>
+      </c>
+      <c r="P9" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="11">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11">
         <v>20</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D10" s="12">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="11">
+        <v>7</v>
+      </c>
+      <c r="G10" s="11">
+        <v>15</v>
+      </c>
+      <c r="H10" s="12">
+        <v>3</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="11">
+        <v>7</v>
+      </c>
+      <c r="K10" s="11">
+        <v>15</v>
+      </c>
+      <c r="L10" s="12">
         <v>1</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="14">
-        <v>2</v>
-      </c>
-      <c r="G5" s="14">
+      <c r="M10" s="3"/>
+      <c r="N10" s="21">
+        <v>7</v>
+      </c>
+      <c r="O10" s="11">
+        <v>15</v>
+      </c>
+      <c r="P10" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11">
         <v>10</v>
       </c>
-      <c r="H5" s="15">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="14">
-        <v>2</v>
-      </c>
-      <c r="K5" s="14">
+      <c r="D11" s="12">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="11">
+        <v>8</v>
+      </c>
+      <c r="G11" s="11">
         <v>10</v>
       </c>
-      <c r="L5" s="15">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="14">
-        <v>2</v>
-      </c>
-      <c r="O5" s="20">
+      <c r="H11" s="12">
+        <v>4</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="11">
+        <v>8</v>
+      </c>
+      <c r="K11" s="11">
         <v>10</v>
       </c>
-      <c r="P5" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="14">
+      <c r="L11" s="12">
+        <v>7</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="21">
+        <v>8</v>
+      </c>
+      <c r="O11" s="11">
+        <v>10</v>
+      </c>
+      <c r="P11" s="12">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="11">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11">
+        <v>5</v>
+      </c>
+      <c r="D12" s="12">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="11">
+        <v>9</v>
+      </c>
+      <c r="G12" s="11">
+        <v>19</v>
+      </c>
+      <c r="H12" s="12">
+        <v>5</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="11">
+        <v>9</v>
+      </c>
+      <c r="K12" s="11">
+        <v>19</v>
+      </c>
+      <c r="L12" s="12">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="21">
+        <v>9</v>
+      </c>
+      <c r="O12" s="11">
+        <v>19</v>
+      </c>
+      <c r="P12" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="13">
+        <v>23</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="11">
+        <v>10</v>
+      </c>
+      <c r="G13" s="11">
         <v>32</v>
       </c>
-      <c r="R5" s="20">
-        <v>20</v>
-      </c>
-      <c r="S5" s="14">
-        <v>31</v>
-      </c>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="14">
-        <v>3</v>
-      </c>
-      <c r="C6" s="14">
-        <v>15</v>
-      </c>
-      <c r="D6" s="15">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="14">
-        <v>3</v>
-      </c>
-      <c r="G6" s="14">
+      <c r="H13" s="12">
+        <v>6</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="11">
         <v>10</v>
       </c>
-      <c r="H6" s="15">
-        <v>2</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="14">
-        <v>3</v>
-      </c>
-      <c r="K6" s="14">
+      <c r="K13" s="11">
+        <v>32</v>
+      </c>
+      <c r="L13" s="12">
+        <v>6.8</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="21">
         <v>10</v>
       </c>
-      <c r="L6" s="15">
-        <v>2</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="14">
-        <v>3</v>
-      </c>
-      <c r="O6" s="20">
-        <v>10</v>
-      </c>
-      <c r="P6" s="14">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="14">
-        <v>33</v>
-      </c>
-      <c r="R6" s="20">
-        <v>15</v>
-      </c>
-      <c r="S6" s="14">
+      <c r="O13" s="11">
         <v>32</v>
       </c>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="14">
-        <v>4</v>
-      </c>
-      <c r="C7" s="14">
-        <v>60</v>
-      </c>
-      <c r="D7" s="15">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="14">
-        <v>4</v>
-      </c>
-      <c r="G7" s="14">
-        <v>10</v>
-      </c>
-      <c r="H7" s="15">
-        <v>3</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="14">
-        <v>4</v>
-      </c>
-      <c r="K7" s="14">
-        <v>10</v>
-      </c>
-      <c r="L7" s="15">
-        <v>3</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="14">
-        <v>4</v>
-      </c>
-      <c r="O7" s="20">
-        <v>10</v>
-      </c>
-      <c r="P7" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="14">
-        <v>34</v>
-      </c>
-      <c r="R7" s="20">
-        <v>60</v>
-      </c>
-      <c r="S7" s="14">
-        <v>31</v>
-      </c>
-      <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="14">
-        <v>5</v>
-      </c>
-      <c r="C8" s="14">
-        <v>70</v>
-      </c>
-      <c r="D8" s="15">
-        <v>4.3</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="14">
-        <v>5</v>
-      </c>
-      <c r="G8" s="14">
-        <v>10</v>
-      </c>
-      <c r="H8" s="15">
-        <v>2</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="14">
-        <v>5</v>
-      </c>
-      <c r="K8" s="14">
-        <v>10</v>
-      </c>
-      <c r="L8" s="15">
-        <v>2</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="14">
-        <v>5</v>
-      </c>
-      <c r="O8" s="20">
-        <v>10</v>
-      </c>
-      <c r="P8" s="14">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="14">
-        <v>35</v>
-      </c>
-      <c r="R8" s="20">
-        <v>70</v>
-      </c>
-      <c r="S8" s="14">
-        <v>33.340000000000003</v>
-      </c>
-      <c r="T8" s="2"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="14">
-        <v>6</v>
-      </c>
-      <c r="C9" s="14">
-        <v>30</v>
-      </c>
-      <c r="D9" s="18">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="14">
-        <v>6</v>
-      </c>
-      <c r="G9" s="14">
-        <v>20</v>
-      </c>
-      <c r="H9" s="15">
-        <v>2</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="14">
-        <v>6</v>
-      </c>
-      <c r="K9" s="14">
-        <v>20</v>
-      </c>
-      <c r="L9" s="15">
-        <v>2</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="14">
-        <v>6</v>
-      </c>
-      <c r="O9" s="20">
-        <v>20</v>
-      </c>
-      <c r="P9" s="14">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>36</v>
-      </c>
-      <c r="R9" s="20">
-        <v>30</v>
-      </c>
-      <c r="S9" s="14">
-        <v>33</v>
-      </c>
-      <c r="T9" s="2"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="14">
-        <v>7</v>
-      </c>
-      <c r="C10" s="14">
-        <v>20</v>
-      </c>
-      <c r="D10" s="15">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="14">
-        <v>7</v>
-      </c>
-      <c r="G10" s="14">
-        <v>20</v>
-      </c>
-      <c r="H10" s="15">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="14">
-        <v>7</v>
-      </c>
-      <c r="K10" s="14">
-        <v>20</v>
-      </c>
-      <c r="L10" s="15">
-        <v>1</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="14">
-        <v>7</v>
-      </c>
-      <c r="O10" s="20">
-        <v>20</v>
-      </c>
-      <c r="P10" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="14">
-        <v>37</v>
-      </c>
-      <c r="R10" s="20">
-        <v>20</v>
-      </c>
-      <c r="S10" s="14">
-        <v>35</v>
-      </c>
-      <c r="T10" s="2"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="14">
-        <v>8</v>
-      </c>
-      <c r="C11" s="14">
-        <v>10</v>
-      </c>
-      <c r="D11" s="15">
-        <v>4</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="14">
-        <v>8</v>
-      </c>
-      <c r="G11" s="14">
-        <v>25</v>
-      </c>
-      <c r="H11" s="15">
-        <v>7</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="14">
-        <v>8</v>
-      </c>
-      <c r="K11" s="14">
-        <v>25</v>
-      </c>
-      <c r="L11" s="15">
-        <v>7</v>
-      </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="14">
-        <v>8</v>
-      </c>
-      <c r="O11" s="20">
-        <v>25</v>
-      </c>
-      <c r="P11" s="14">
-        <v>7</v>
-      </c>
-      <c r="Q11" s="14">
-        <v>38</v>
-      </c>
-      <c r="R11" s="20">
-        <v>10</v>
-      </c>
-      <c r="S11" s="14">
-        <v>34</v>
-      </c>
-      <c r="T11" s="2"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="14">
-        <v>9</v>
-      </c>
-      <c r="C12" s="14">
-        <v>5</v>
-      </c>
-      <c r="D12" s="15">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="14">
-        <v>9</v>
-      </c>
-      <c r="G12" s="14">
-        <v>25</v>
-      </c>
-      <c r="H12" s="15">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="14">
-        <v>9</v>
-      </c>
-      <c r="K12" s="14">
-        <v>25</v>
-      </c>
-      <c r="L12" s="15">
-        <v>4</v>
-      </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="14">
-        <v>9</v>
-      </c>
-      <c r="O12" s="20">
-        <v>25</v>
-      </c>
-      <c r="P12" s="14">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="14">
-        <v>39</v>
-      </c>
-      <c r="R12" s="20">
-        <v>5</v>
-      </c>
-      <c r="S12" s="14">
-        <v>38</v>
-      </c>
-      <c r="T12" s="2"/>
-    </row>
-    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="16">
-        <v>10</v>
-      </c>
-      <c r="C13" s="16">
-        <v>23</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="14">
-        <v>10</v>
-      </c>
-      <c r="G13" s="14">
-        <v>30</v>
-      </c>
-      <c r="H13" s="15">
+      <c r="P13" s="12">
         <v>6.8</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="14">
-        <v>10</v>
-      </c>
-      <c r="K13" s="14">
-        <v>30</v>
-      </c>
-      <c r="L13" s="15">
-        <v>6.8</v>
-      </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="14">
-        <v>10</v>
-      </c>
-      <c r="O13" s="20">
-        <v>30</v>
-      </c>
-      <c r="P13" s="14">
-        <v>6.8</v>
-      </c>
-      <c r="Q13" s="14">
-        <v>40</v>
-      </c>
-      <c r="R13" s="20">
-        <v>23</v>
-      </c>
-      <c r="S13" s="14" t="s">
-        <v>10</v>
-      </c>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="14">
+      <c r="F14" s="11">
         <v>11</v>
       </c>
-      <c r="G14" s="14">
-        <v>35</v>
-      </c>
-      <c r="H14" s="15">
+      <c r="G14" s="11">
+        <v>40</v>
+      </c>
+      <c r="H14" s="25">
+        <v>9.1</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="11">
+        <v>11</v>
+      </c>
+      <c r="K14" s="11">
+        <v>40</v>
+      </c>
+      <c r="L14" s="12">
         <v>5.9</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="14">
+      <c r="M14" s="3"/>
+      <c r="N14" s="21">
         <v>11</v>
       </c>
-      <c r="K14" s="14">
-        <v>35</v>
-      </c>
-      <c r="L14" s="15">
+      <c r="O14" s="11">
+        <v>40</v>
+      </c>
+      <c r="P14" s="12">
         <v>5.9</v>
       </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="14">
-        <v>11</v>
-      </c>
-      <c r="O14" s="20">
-        <v>35</v>
-      </c>
-      <c r="P14" s="14">
-        <v>5.9</v>
-      </c>
-      <c r="Q14" s="14">
-        <v>41</v>
-      </c>
-      <c r="R14" s="20">
-        <v>10</v>
-      </c>
-      <c r="S14" s="14">
-        <v>25</v>
-      </c>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="14">
+      <c r="F15" s="11">
         <v>12</v>
       </c>
-      <c r="G15" s="14">
-        <v>25</v>
-      </c>
-      <c r="H15" s="15">
+      <c r="G15" s="11">
+        <v>23</v>
+      </c>
+      <c r="H15" s="12">
+        <v>6.7</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="11">
+        <v>12</v>
+      </c>
+      <c r="K15" s="11">
+        <v>23</v>
+      </c>
+      <c r="L15" s="12">
         <v>9</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="14">
+      <c r="M15" s="3"/>
+      <c r="N15" s="21">
         <v>12</v>
       </c>
-      <c r="K15" s="14">
-        <v>25</v>
-      </c>
-      <c r="L15" s="15">
+      <c r="O15" s="11">
+        <v>23</v>
+      </c>
+      <c r="P15" s="12">
         <v>9</v>
       </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="14">
-        <v>12</v>
-      </c>
-      <c r="O15" s="20">
-        <v>25</v>
-      </c>
-      <c r="P15" s="14">
-        <v>9</v>
-      </c>
-      <c r="Q15" s="14">
-        <v>42</v>
-      </c>
-      <c r="R15" s="20">
-        <v>10</v>
-      </c>
-      <c r="S15" s="14">
-        <v>41</v>
-      </c>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="14">
+      <c r="F16" s="11">
         <v>13</v>
       </c>
-      <c r="G16" s="14">
-        <v>20</v>
-      </c>
-      <c r="H16" s="15">
+      <c r="G16" s="11">
+        <v>27</v>
+      </c>
+      <c r="H16" s="12">
+        <v>8</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="11">
+        <v>13</v>
+      </c>
+      <c r="K16" s="11">
+        <v>27</v>
+      </c>
+      <c r="L16" s="12">
         <v>4</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="14">
+      <c r="M16" s="3"/>
+      <c r="N16" s="21">
         <v>13</v>
       </c>
-      <c r="K16" s="14">
-        <v>20</v>
-      </c>
-      <c r="L16" s="15">
+      <c r="O16" s="11">
+        <v>27</v>
+      </c>
+      <c r="P16" s="12">
         <v>4</v>
       </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="14">
-        <v>13</v>
-      </c>
-      <c r="O16" s="20">
-        <v>20</v>
-      </c>
-      <c r="P16" s="14">
-        <v>4</v>
-      </c>
-      <c r="Q16" s="14">
-        <v>43</v>
-      </c>
-      <c r="R16" s="20">
-        <v>10</v>
-      </c>
-      <c r="S16" s="14">
-        <v>42</v>
-      </c>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="14">
+      <c r="F17" s="11">
         <v>14</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="11">
         <v>40</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="12">
+        <v>13</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="11">
+        <v>14</v>
+      </c>
+      <c r="K17" s="11">
+        <v>40</v>
+      </c>
+      <c r="L17" s="12">
         <v>13.12</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="14">
+      <c r="M17" s="3"/>
+      <c r="N17" s="21">
         <v>14</v>
       </c>
-      <c r="K17" s="14">
+      <c r="O17" s="11">
         <v>40</v>
       </c>
-      <c r="L17" s="15">
+      <c r="P17" s="12">
         <v>13.12</v>
       </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="14">
-        <v>14</v>
-      </c>
-      <c r="O17" s="20">
-        <v>40</v>
-      </c>
-      <c r="P17" s="14">
-        <v>13.12</v>
-      </c>
-      <c r="Q17" s="14">
-        <v>44</v>
-      </c>
-      <c r="R17" s="20">
-        <v>10</v>
-      </c>
-      <c r="S17" s="14">
-        <v>43</v>
-      </c>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="14">
+      <c r="F18" s="11">
         <v>15</v>
       </c>
-      <c r="G18" s="14">
-        <v>42</v>
-      </c>
-      <c r="H18" s="15">
+      <c r="G18" s="11">
+        <v>35</v>
+      </c>
+      <c r="H18" s="12">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="11">
+        <v>15</v>
+      </c>
+      <c r="K18" s="11">
+        <v>35</v>
+      </c>
+      <c r="L18" s="12">
         <v>14</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="14">
+      <c r="M18" s="3"/>
+      <c r="N18" s="21">
         <v>15</v>
       </c>
-      <c r="K18" s="14">
-        <v>42</v>
-      </c>
-      <c r="L18" s="15">
+      <c r="O18" s="11">
+        <v>35</v>
+      </c>
+      <c r="P18" s="12">
         <v>14</v>
       </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="14">
-        <v>15</v>
-      </c>
-      <c r="O18" s="20">
-        <v>42</v>
-      </c>
-      <c r="P18" s="14">
-        <v>14</v>
-      </c>
-      <c r="Q18" s="14">
-        <v>45</v>
-      </c>
-      <c r="R18" s="20">
-        <v>10</v>
-      </c>
-      <c r="S18" s="14">
-        <v>42</v>
-      </c>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="14">
+      <c r="F19" s="11">
         <v>16</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="11">
         <v>20</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="12">
+        <v>15.14</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="11">
+        <v>16</v>
+      </c>
+      <c r="K19" s="11">
+        <v>20</v>
+      </c>
+      <c r="L19" s="12">
         <v>12</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="14">
+      <c r="M19" s="3"/>
+      <c r="N19" s="21">
         <v>16</v>
       </c>
-      <c r="K19" s="14">
+      <c r="O19" s="11">
         <v>20</v>
       </c>
-      <c r="L19" s="15">
+      <c r="P19" s="12">
         <v>12</v>
       </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="14">
-        <v>16</v>
-      </c>
-      <c r="O19" s="20">
-        <v>20</v>
-      </c>
-      <c r="P19" s="14">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="14">
-        <v>46</v>
-      </c>
-      <c r="R19" s="20">
-        <v>20</v>
-      </c>
-      <c r="S19" s="14">
-        <v>42</v>
-      </c>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="14">
+      <c r="F20" s="11">
         <v>17</v>
       </c>
-      <c r="G20" s="14">
-        <v>25</v>
-      </c>
-      <c r="H20" s="15">
+      <c r="G20" s="11">
+        <v>10</v>
+      </c>
+      <c r="H20" s="12">
+        <v>7</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="11">
+        <v>17</v>
+      </c>
+      <c r="K20" s="11">
+        <v>10</v>
+      </c>
+      <c r="L20" s="12">
         <v>14</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="14">
+      <c r="M20" s="3"/>
+      <c r="N20" s="21">
         <v>17</v>
       </c>
-      <c r="K20" s="14">
-        <v>25</v>
-      </c>
-      <c r="L20" s="15">
+      <c r="O20" s="11">
+        <v>10</v>
+      </c>
+      <c r="P20" s="12">
         <v>14</v>
       </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="14">
-        <v>17</v>
-      </c>
-      <c r="O20" s="20">
-        <v>25</v>
-      </c>
-      <c r="P20" s="14">
-        <v>14</v>
-      </c>
-      <c r="Q20" s="14">
-        <v>47</v>
-      </c>
-      <c r="R20" s="20">
-        <v>20</v>
-      </c>
-      <c r="S20" s="14">
-        <v>41</v>
-      </c>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="14">
+      <c r="F21" s="11">
         <v>18</v>
       </c>
-      <c r="G21" s="14">
-        <v>40</v>
-      </c>
-      <c r="H21" s="15">
+      <c r="G21" s="11">
+        <v>17</v>
+      </c>
+      <c r="H21" s="12">
+        <v>11.12</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="11">
+        <v>18</v>
+      </c>
+      <c r="K21" s="11">
+        <v>17</v>
+      </c>
+      <c r="L21" s="12">
         <v>17.16</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="14">
+      <c r="M21" s="3"/>
+      <c r="N21" s="21">
         <v>18</v>
       </c>
-      <c r="K21" s="14">
-        <v>40</v>
-      </c>
-      <c r="L21" s="15">
+      <c r="O21" s="11">
+        <v>17</v>
+      </c>
+      <c r="P21" s="12">
         <v>17.16</v>
       </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="14">
-        <v>18</v>
-      </c>
-      <c r="O21" s="20">
-        <v>40</v>
-      </c>
-      <c r="P21" s="14">
-        <v>17.16</v>
-      </c>
-      <c r="Q21" s="14">
-        <v>48</v>
-      </c>
-      <c r="R21" s="20">
-        <v>25</v>
-      </c>
-      <c r="S21" s="14">
-        <v>47</v>
-      </c>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="14">
+      <c r="F22" s="11">
         <v>19</v>
       </c>
-      <c r="G22" s="14">
-        <v>35</v>
-      </c>
-      <c r="H22" s="15">
+      <c r="G22" s="11">
+        <v>24</v>
+      </c>
+      <c r="H22" s="12">
+        <v>18.170000000000002</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="11">
+        <v>19</v>
+      </c>
+      <c r="K22" s="11">
+        <v>24</v>
+      </c>
+      <c r="L22" s="12">
         <v>11</v>
       </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="14">
+      <c r="M22" s="3"/>
+      <c r="N22" s="21">
         <v>19</v>
       </c>
-      <c r="K22" s="14">
-        <v>35</v>
-      </c>
-      <c r="L22" s="15">
+      <c r="O22" s="11">
+        <v>24</v>
+      </c>
+      <c r="P22" s="12">
         <v>11</v>
       </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="14">
-        <v>19</v>
-      </c>
-      <c r="O22" s="20">
-        <v>35</v>
-      </c>
-      <c r="P22" s="14">
-        <v>11</v>
-      </c>
-      <c r="Q22" s="14">
-        <v>49</v>
-      </c>
-      <c r="R22" s="20">
-        <v>25</v>
-      </c>
-      <c r="S22" s="14">
-        <v>44</v>
-      </c>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="16">
+      <c r="F23" s="13">
         <v>20</v>
       </c>
-      <c r="G23" s="16">
-        <v>45</v>
-      </c>
-      <c r="H23" s="17">
-        <v>10</v>
+      <c r="G23" s="13">
+        <v>50</v>
+      </c>
+      <c r="H23" s="14">
+        <v>16.190000000000001</v>
       </c>
       <c r="I23" s="3"/>
-      <c r="J23" s="14">
+      <c r="J23" s="11">
         <v>20</v>
       </c>
-      <c r="K23" s="14">
-        <v>45</v>
-      </c>
-      <c r="L23" s="15">
-        <v>10</v>
+      <c r="K23" s="11">
+        <v>50</v>
+      </c>
+      <c r="L23" s="12">
+        <v>10.19</v>
       </c>
       <c r="M23" s="3"/>
-      <c r="N23" s="14">
+      <c r="N23" s="21">
         <v>20</v>
       </c>
-      <c r="O23" s="20">
-        <v>45</v>
-      </c>
-      <c r="P23" s="14">
-        <v>10</v>
-      </c>
-      <c r="Q23" s="14">
+      <c r="O23" s="11">
         <v>50</v>
       </c>
-      <c r="R23" s="20">
-        <v>30</v>
-      </c>
-      <c r="S23" s="14">
-        <v>46.48</v>
-      </c>
+      <c r="P23" s="12">
+        <v>10.19</v>
+      </c>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1704,37 +1627,31 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="14">
+      <c r="J24" s="11">
         <v>21</v>
       </c>
-      <c r="K24" s="14">
-        <v>50</v>
-      </c>
-      <c r="L24" s="15">
+      <c r="K24" s="11">
+        <v>40</v>
+      </c>
+      <c r="L24" s="12">
         <v>20</v>
       </c>
       <c r="M24" s="3"/>
-      <c r="N24" s="14">
+      <c r="N24" s="21">
         <v>21</v>
       </c>
-      <c r="O24" s="20">
-        <v>50</v>
-      </c>
-      <c r="P24" s="14">
+      <c r="O24" s="11">
+        <v>40</v>
+      </c>
+      <c r="P24" s="12">
         <v>20</v>
       </c>
-      <c r="Q24" s="14">
-        <v>51</v>
-      </c>
-      <c r="R24" s="20">
-        <v>35</v>
-      </c>
-      <c r="S24" s="14">
-        <v>45.49</v>
-      </c>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1744,37 +1661,31 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="14">
+      <c r="J25" s="11">
         <v>22</v>
       </c>
-      <c r="K25" s="14">
-        <v>25</v>
-      </c>
-      <c r="L25" s="15">
+      <c r="K25" s="11">
+        <v>23</v>
+      </c>
+      <c r="L25" s="12">
         <v>21</v>
       </c>
       <c r="M25" s="3"/>
-      <c r="N25" s="14">
+      <c r="N25" s="21">
         <v>22</v>
       </c>
-      <c r="O25" s="20">
-        <v>25</v>
-      </c>
-      <c r="P25" s="14">
+      <c r="O25" s="11">
+        <v>23</v>
+      </c>
+      <c r="P25" s="12">
         <v>21</v>
       </c>
-      <c r="Q25" s="14">
-        <v>52</v>
-      </c>
-      <c r="R25" s="20">
-        <v>25</v>
-      </c>
-      <c r="S25" s="14">
-        <v>49</v>
-      </c>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1784,37 +1695,31 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="14">
+      <c r="J26" s="11">
         <v>23</v>
       </c>
-      <c r="K26" s="14">
-        <v>15</v>
-      </c>
-      <c r="L26" s="15">
-        <v>22</v>
+      <c r="K26" s="11">
+        <v>27</v>
+      </c>
+      <c r="L26" s="12">
+        <v>18.22</v>
       </c>
       <c r="M26" s="3"/>
-      <c r="N26" s="14">
+      <c r="N26" s="21">
         <v>23</v>
       </c>
-      <c r="O26" s="20">
-        <v>15</v>
-      </c>
-      <c r="P26" s="14">
-        <v>22</v>
-      </c>
-      <c r="Q26" s="14">
-        <v>53</v>
-      </c>
-      <c r="R26" s="20">
-        <v>20</v>
-      </c>
-      <c r="S26" s="14">
-        <v>44</v>
-      </c>
+      <c r="O26" s="11">
+        <v>27</v>
+      </c>
+      <c r="P26" s="12">
+        <v>18.22</v>
+      </c>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1824,37 +1729,31 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="14">
+      <c r="J27" s="11">
         <v>24</v>
       </c>
-      <c r="K27" s="14">
-        <v>10</v>
-      </c>
-      <c r="L27" s="15">
+      <c r="K27" s="11">
+        <v>40</v>
+      </c>
+      <c r="L27" s="12">
         <v>8</v>
       </c>
       <c r="M27" s="3"/>
-      <c r="N27" s="14">
+      <c r="N27" s="21">
         <v>24</v>
       </c>
-      <c r="O27" s="20">
-        <v>10</v>
-      </c>
-      <c r="P27" s="14">
+      <c r="O27" s="11">
+        <v>40</v>
+      </c>
+      <c r="P27" s="12">
         <v>8</v>
       </c>
-      <c r="Q27" s="14">
-        <v>54</v>
-      </c>
-      <c r="R27" s="20">
-        <v>40</v>
-      </c>
-      <c r="S27" s="14">
-        <v>53.52</v>
-      </c>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1864,37 +1763,31 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="14">
+      <c r="J28" s="11">
         <v>25</v>
       </c>
-      <c r="K28" s="14">
-        <v>15</v>
-      </c>
-      <c r="L28" s="15">
+      <c r="K28" s="11">
+        <v>35</v>
+      </c>
+      <c r="L28" s="12">
         <v>24</v>
       </c>
       <c r="M28" s="3"/>
-      <c r="N28" s="14">
+      <c r="N28" s="21">
         <v>25</v>
       </c>
-      <c r="O28" s="20">
-        <v>15</v>
-      </c>
-      <c r="P28" s="14">
+      <c r="O28" s="11">
+        <v>35</v>
+      </c>
+      <c r="P28" s="12">
         <v>24</v>
       </c>
-      <c r="Q28" s="14">
-        <v>55</v>
-      </c>
-      <c r="R28" s="20">
-        <v>42</v>
-      </c>
-      <c r="S28" s="14">
-        <v>54</v>
-      </c>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1904,37 +1797,31 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="14">
+      <c r="J29" s="11">
         <v>26</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K29" s="11">
+        <v>20</v>
+      </c>
+      <c r="L29" s="12">
         <v>25</v>
       </c>
-      <c r="L29" s="15">
+      <c r="M29" s="3"/>
+      <c r="N29" s="21">
+        <v>26</v>
+      </c>
+      <c r="O29" s="11">
+        <v>20</v>
+      </c>
+      <c r="P29" s="12">
         <v>25</v>
       </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="14">
-        <v>26</v>
-      </c>
-      <c r="O29" s="20">
-        <v>25</v>
-      </c>
-      <c r="P29" s="14">
-        <v>25</v>
-      </c>
-      <c r="Q29" s="14">
-        <v>56</v>
-      </c>
-      <c r="R29" s="20">
-        <v>20</v>
-      </c>
-      <c r="S29" s="14">
-        <v>52</v>
-      </c>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1944,37 +1831,31 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="14">
+      <c r="J30" s="11">
         <v>27</v>
       </c>
-      <c r="K30" s="14">
-        <v>25</v>
-      </c>
-      <c r="L30" s="15">
+      <c r="K30" s="11">
+        <v>10</v>
+      </c>
+      <c r="L30" s="12">
         <v>26</v>
       </c>
       <c r="M30" s="3"/>
-      <c r="N30" s="14">
+      <c r="N30" s="21">
         <v>27</v>
       </c>
-      <c r="O30" s="20">
-        <v>25</v>
-      </c>
-      <c r="P30" s="14">
+      <c r="O30" s="11">
+        <v>10</v>
+      </c>
+      <c r="P30" s="12">
         <v>26</v>
       </c>
-      <c r="Q30" s="14">
-        <v>57</v>
-      </c>
-      <c r="R30" s="20">
-        <v>25</v>
-      </c>
-      <c r="S30" s="14">
-        <v>54</v>
-      </c>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1984,37 +1865,31 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="14">
+      <c r="J31" s="11">
         <v>28</v>
       </c>
-      <c r="K31" s="14">
-        <v>30</v>
-      </c>
-      <c r="L31" s="15">
+      <c r="K31" s="11">
+        <v>17</v>
+      </c>
+      <c r="L31" s="12">
         <v>27</v>
       </c>
       <c r="M31" s="3"/>
-      <c r="N31" s="14">
+      <c r="N31" s="23">
         <v>28</v>
       </c>
-      <c r="O31" s="20">
-        <v>30</v>
-      </c>
-      <c r="P31" s="14">
+      <c r="O31" s="11">
+        <v>17</v>
+      </c>
+      <c r="P31" s="12">
         <v>27</v>
       </c>
-      <c r="Q31" s="14">
-        <v>58</v>
-      </c>
-      <c r="R31" s="20">
-        <v>40</v>
-      </c>
-      <c r="S31" s="14">
-        <v>57.56</v>
-      </c>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
       <c r="T31" s="2"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2024,37 +1899,31 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="14">
+      <c r="J32" s="11">
         <v>29</v>
       </c>
-      <c r="K32" s="14">
-        <v>45</v>
-      </c>
-      <c r="L32" s="15">
+      <c r="K32" s="11">
+        <v>24</v>
+      </c>
+      <c r="L32" s="12">
         <v>28</v>
       </c>
       <c r="M32" s="3"/>
-      <c r="N32" s="14">
+      <c r="N32" s="21">
         <v>29</v>
       </c>
-      <c r="O32" s="20">
-        <v>45</v>
-      </c>
-      <c r="P32" s="14">
+      <c r="O32" s="11">
+        <v>24</v>
+      </c>
+      <c r="P32" s="12">
         <v>28</v>
       </c>
-      <c r="Q32" s="14">
-        <v>59</v>
-      </c>
-      <c r="R32" s="20">
-        <v>35</v>
-      </c>
-      <c r="S32" s="14">
-        <v>51</v>
-      </c>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
       <c r="T32" s="2"/>
     </row>
-    <row r="33" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -2064,37 +1933,31 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="16">
+      <c r="J33" s="13">
         <v>30</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K33" s="13">
         <v>50</v>
       </c>
-      <c r="L33" s="17" t="s">
+      <c r="L33" s="14" t="s">
         <v>4</v>
       </c>
       <c r="M33" s="3"/>
-      <c r="N33" s="16">
+      <c r="N33" s="21">
         <v>30</v>
       </c>
-      <c r="O33" s="21">
+      <c r="O33" s="13">
         <v>50</v>
       </c>
-      <c r="P33" s="16" t="s">
+      <c r="P33" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="Q33" s="16">
-        <v>60</v>
-      </c>
-      <c r="R33" s="21">
-        <v>45</v>
-      </c>
-      <c r="S33" s="16" t="s">
-        <v>11</v>
-      </c>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2108,15 +1971,21 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
+      <c r="N34" s="21">
+        <v>31</v>
+      </c>
+      <c r="O34" s="9">
+        <v>30</v>
+      </c>
+      <c r="P34" s="10">
+        <v>30</v>
+      </c>
       <c r="Q34" s="5"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2130,15 +1999,21 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
+      <c r="N35" s="21">
+        <v>32</v>
+      </c>
+      <c r="O35" s="11">
+        <v>20</v>
+      </c>
+      <c r="P35" s="12">
+        <v>31</v>
+      </c>
       <c r="Q35" s="5"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2152,15 +2027,21 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
+      <c r="N36" s="21">
+        <v>33</v>
+      </c>
+      <c r="O36" s="11">
+        <v>15</v>
+      </c>
+      <c r="P36" s="12">
+        <v>32</v>
+      </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2174,8 +2055,17 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N37" s="21">
+        <v>34</v>
+      </c>
+      <c r="O37" s="11">
+        <v>60</v>
+      </c>
+      <c r="P37" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2189,8 +2079,17 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N38" s="21">
+        <v>35</v>
+      </c>
+      <c r="O38" s="11">
+        <v>70</v>
+      </c>
+      <c r="P38" s="12">
+        <v>33.340000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2204,8 +2103,17 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N39" s="21">
+        <v>36</v>
+      </c>
+      <c r="O39" s="11">
+        <v>30</v>
+      </c>
+      <c r="P39" s="15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2219,8 +2127,17 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N40" s="21">
+        <v>37</v>
+      </c>
+      <c r="O40" s="11">
+        <v>20</v>
+      </c>
+      <c r="P40" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2234,8 +2151,17 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N41" s="21">
+        <v>38</v>
+      </c>
+      <c r="O41" s="11">
+        <v>10</v>
+      </c>
+      <c r="P41" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2249,8 +2175,17 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N42" s="21">
+        <v>39</v>
+      </c>
+      <c r="O42" s="11">
+        <v>5</v>
+      </c>
+      <c r="P42" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2264,8 +2199,17 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N43" s="21">
+        <v>40</v>
+      </c>
+      <c r="O43" s="13">
+        <v>23</v>
+      </c>
+      <c r="P43" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2279,8 +2223,17 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N44" s="21">
+        <v>41</v>
+      </c>
+      <c r="O44" s="9">
+        <v>10</v>
+      </c>
+      <c r="P44" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2294,8 +2247,17 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N45" s="21">
+        <v>42</v>
+      </c>
+      <c r="O45" s="11">
+        <v>20</v>
+      </c>
+      <c r="P45" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2309,8 +2271,17 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N46" s="21">
+        <v>43</v>
+      </c>
+      <c r="O46" s="11">
+        <v>25</v>
+      </c>
+      <c r="P46" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2324,8 +2295,17 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N47" s="21">
+        <v>44</v>
+      </c>
+      <c r="O47" s="11">
+        <v>15</v>
+      </c>
+      <c r="P47" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2339,8 +2319,17 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N48" s="21">
+        <v>45</v>
+      </c>
+      <c r="O48" s="11">
+        <v>30</v>
+      </c>
+      <c r="P48" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2354,8 +2343,17 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N49" s="21">
+        <v>46</v>
+      </c>
+      <c r="O49" s="11">
+        <v>40</v>
+      </c>
+      <c r="P49" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2369,8 +2367,17 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="21">
+        <v>47</v>
+      </c>
+      <c r="O50" s="11">
+        <v>15</v>
+      </c>
+      <c r="P50" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2384,8 +2391,17 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="21">
+        <v>48</v>
+      </c>
+      <c r="O51" s="11">
+        <v>10</v>
+      </c>
+      <c r="P51" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2399,8 +2415,17 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N52" s="21">
+        <v>49</v>
+      </c>
+      <c r="O52" s="11">
+        <v>19</v>
+      </c>
+      <c r="P52" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2414,8 +2439,17 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="21">
+        <v>50</v>
+      </c>
+      <c r="O53" s="11">
+        <v>32</v>
+      </c>
+      <c r="P53" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2429,8 +2463,17 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N54" s="21">
+        <v>51</v>
+      </c>
+      <c r="O54" s="11">
+        <v>40</v>
+      </c>
+      <c r="P54" s="25">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2444,8 +2487,17 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="21">
+        <v>52</v>
+      </c>
+      <c r="O55" s="11">
+        <v>23</v>
+      </c>
+      <c r="P55" s="12">
+        <v>46.47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2459,8 +2511,17 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="21">
+        <v>53</v>
+      </c>
+      <c r="O56" s="11">
+        <v>27</v>
+      </c>
+      <c r="P56" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2474,8 +2535,17 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N57" s="21">
+        <v>54</v>
+      </c>
+      <c r="O57" s="11">
+        <v>40</v>
+      </c>
+      <c r="P57" s="12">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2489,8 +2559,17 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N58" s="21">
+        <v>55</v>
+      </c>
+      <c r="O58" s="11">
+        <v>35</v>
+      </c>
+      <c r="P58" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2504,8 +2583,17 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N59" s="21">
+        <v>56</v>
+      </c>
+      <c r="O59" s="11">
+        <v>20</v>
+      </c>
+      <c r="P59" s="12">
+        <v>55.54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2519,8 +2607,17 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N60" s="21">
+        <v>57</v>
+      </c>
+      <c r="O60" s="11">
+        <v>10</v>
+      </c>
+      <c r="P60" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2534,8 +2631,17 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N61" s="21">
+        <v>58</v>
+      </c>
+      <c r="O61" s="11">
+        <v>17</v>
+      </c>
+      <c r="P61" s="12">
+        <v>51.52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2549,8 +2655,17 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N62" s="21">
+        <v>59</v>
+      </c>
+      <c r="O62" s="11">
+        <v>24</v>
+      </c>
+      <c r="P62" s="12">
+        <v>57.58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2564,6 +2679,18 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
+      <c r="N63" s="24">
+        <v>60</v>
+      </c>
+      <c r="O63" s="13">
+        <v>50</v>
+      </c>
+      <c r="P63" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N64" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2573,5 +2700,6 @@
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ensamblajes.xlsx
+++ b/Ensamblajes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\IV Semestre\Analisis de Algoritmos\Proyectos\Segundo Proyecto\SegundoProyectoAnálisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E390DB06-666B-48D5-BFF6-7A197F28CB67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855B860A-91B9-4E68-98F7-AD2CCC216DD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -335,15 +335,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -361,6 +352,15 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,29 +683,29 @@
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="19"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="25"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="19"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="25"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -789,7 +789,7 @@
         <v>3</v>
       </c>
       <c r="M4" s="3"/>
-      <c r="N4" s="20">
+      <c r="N4" s="17">
         <v>1</v>
       </c>
       <c r="O4" s="11">
@@ -798,9 +798,9 @@
       <c r="P4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
       <c r="T4" s="2"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -809,7 +809,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="11">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D5" s="12">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="3"/>
-      <c r="N5" s="21">
+      <c r="N5" s="18">
         <v>2</v>
       </c>
       <c r="O5" s="11">
@@ -844,9 +844,9 @@
       <c r="P5" s="12">
         <v>1</v>
       </c>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
       <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -881,7 +881,7 @@
         <v>2</v>
       </c>
       <c r="M6" s="3"/>
-      <c r="N6" s="21">
+      <c r="N6" s="18">
         <v>3</v>
       </c>
       <c r="O6" s="11">
@@ -890,9 +890,9 @@
       <c r="P6" s="12">
         <v>2</v>
       </c>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
       <c r="T6" s="2"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -901,7 +901,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="11">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D7" s="12">
         <v>1</v>
@@ -927,7 +927,7 @@
         <v>3</v>
       </c>
       <c r="M7" s="3"/>
-      <c r="N7" s="21">
+      <c r="N7" s="18">
         <v>4</v>
       </c>
       <c r="O7" s="11">
@@ -936,9 +936,9 @@
       <c r="P7" s="12">
         <v>3</v>
       </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
       <c r="T7" s="2"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -947,7 +947,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="11">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D8" s="12">
         <v>4.3</v>
@@ -973,7 +973,7 @@
         <v>2</v>
       </c>
       <c r="M8" s="3"/>
-      <c r="N8" s="21">
+      <c r="N8" s="18">
         <v>5</v>
       </c>
       <c r="O8" s="11">
@@ -982,9 +982,9 @@
       <c r="P8" s="12">
         <v>2</v>
       </c>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
       <c r="T8" s="2"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1003,7 +1003,7 @@
         <v>6</v>
       </c>
       <c r="G9" s="11">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H9" s="12">
         <v>2</v>
@@ -1013,13 +1013,13 @@
         <v>6</v>
       </c>
       <c r="K9" s="11">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L9" s="12">
         <v>2</v>
       </c>
       <c r="M9" s="3"/>
-      <c r="N9" s="21">
+      <c r="N9" s="18">
         <v>6</v>
       </c>
       <c r="O9" s="11">
@@ -1028,9 +1028,9 @@
       <c r="P9" s="12">
         <v>2</v>
       </c>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
       <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1039,7 +1039,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D10" s="12">
         <v>5</v>
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="3"/>
-      <c r="N10" s="21">
+      <c r="N10" s="18">
         <v>7</v>
       </c>
       <c r="O10" s="11">
@@ -1074,9 +1074,9 @@
       <c r="P10" s="12">
         <v>1</v>
       </c>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
       <c r="T10" s="2"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1111,7 +1111,7 @@
         <v>7</v>
       </c>
       <c r="M11" s="3"/>
-      <c r="N11" s="21">
+      <c r="N11" s="18">
         <v>8</v>
       </c>
       <c r="O11" s="11">
@@ -1120,9 +1120,9 @@
       <c r="P11" s="12">
         <v>7</v>
       </c>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
       <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1131,7 +1131,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="11">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D12" s="12">
         <v>8</v>
@@ -1157,7 +1157,7 @@
         <v>4</v>
       </c>
       <c r="M12" s="3"/>
-      <c r="N12" s="21">
+      <c r="N12" s="18">
         <v>9</v>
       </c>
       <c r="O12" s="11">
@@ -1166,9 +1166,9 @@
       <c r="P12" s="12">
         <v>4</v>
       </c>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
       <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="13">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>7</v>
@@ -1203,7 +1203,7 @@
         <v>6.8</v>
       </c>
       <c r="M13" s="3"/>
-      <c r="N13" s="21">
+      <c r="N13" s="18">
         <v>10</v>
       </c>
       <c r="O13" s="11">
@@ -1212,9 +1212,9 @@
       <c r="P13" s="12">
         <v>6.8</v>
       </c>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
       <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1229,7 +1229,7 @@
       <c r="G14" s="11">
         <v>40</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="22">
         <v>9.1</v>
       </c>
       <c r="I14" s="3"/>
@@ -1237,13 +1237,13 @@
         <v>11</v>
       </c>
       <c r="K14" s="11">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="L14" s="12">
         <v>5.9</v>
       </c>
       <c r="M14" s="3"/>
-      <c r="N14" s="21">
+      <c r="N14" s="18">
         <v>11</v>
       </c>
       <c r="O14" s="11">
@@ -1252,9 +1252,9 @@
       <c r="P14" s="12">
         <v>5.9</v>
       </c>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
       <c r="T14" s="2"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1283,7 +1283,7 @@
         <v>9</v>
       </c>
       <c r="M15" s="3"/>
-      <c r="N15" s="21">
+      <c r="N15" s="18">
         <v>12</v>
       </c>
       <c r="O15" s="11">
@@ -1292,9 +1292,9 @@
       <c r="P15" s="12">
         <v>9</v>
       </c>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
       <c r="T15" s="2"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -1323,7 +1323,7 @@
         <v>4</v>
       </c>
       <c r="M16" s="3"/>
-      <c r="N16" s="21">
+      <c r="N16" s="18">
         <v>13</v>
       </c>
       <c r="O16" s="11">
@@ -1332,9 +1332,9 @@
       <c r="P16" s="12">
         <v>4</v>
       </c>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
       <c r="T16" s="2"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -1357,13 +1357,13 @@
         <v>14</v>
       </c>
       <c r="K17" s="11">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="L17" s="12">
         <v>13.12</v>
       </c>
       <c r="M17" s="3"/>
-      <c r="N17" s="21">
+      <c r="N17" s="18">
         <v>14</v>
       </c>
       <c r="O17" s="11">
@@ -1372,9 +1372,9 @@
       <c r="P17" s="12">
         <v>13.12</v>
       </c>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
       <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -1403,7 +1403,7 @@
         <v>14</v>
       </c>
       <c r="M18" s="3"/>
-      <c r="N18" s="21">
+      <c r="N18" s="18">
         <v>15</v>
       </c>
       <c r="O18" s="11">
@@ -1412,9 +1412,9 @@
       <c r="P18" s="12">
         <v>14</v>
       </c>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
       <c r="T18" s="2"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -1443,7 +1443,7 @@
         <v>12</v>
       </c>
       <c r="M19" s="3"/>
-      <c r="N19" s="21">
+      <c r="N19" s="18">
         <v>16</v>
       </c>
       <c r="O19" s="11">
@@ -1452,9 +1452,9 @@
       <c r="P19" s="12">
         <v>12</v>
       </c>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
       <c r="T19" s="2"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -1483,7 +1483,7 @@
         <v>14</v>
       </c>
       <c r="M20" s="3"/>
-      <c r="N20" s="21">
+      <c r="N20" s="18">
         <v>17</v>
       </c>
       <c r="O20" s="11">
@@ -1492,9 +1492,9 @@
       <c r="P20" s="12">
         <v>14</v>
       </c>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
       <c r="T20" s="2"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -1523,7 +1523,7 @@
         <v>17.16</v>
       </c>
       <c r="M21" s="3"/>
-      <c r="N21" s="21">
+      <c r="N21" s="18">
         <v>18</v>
       </c>
       <c r="O21" s="11">
@@ -1532,9 +1532,9 @@
       <c r="P21" s="12">
         <v>17.16</v>
       </c>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
       <c r="T21" s="2"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -1563,7 +1563,7 @@
         <v>11</v>
       </c>
       <c r="M22" s="3"/>
-      <c r="N22" s="21">
+      <c r="N22" s="18">
         <v>19</v>
       </c>
       <c r="O22" s="11">
@@ -1572,9 +1572,9 @@
       <c r="P22" s="12">
         <v>11</v>
       </c>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
       <c r="T22" s="2"/>
     </row>
     <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1587,7 +1587,7 @@
         <v>20</v>
       </c>
       <c r="G23" s="13">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H23" s="14">
         <v>16.190000000000001</v>
@@ -1597,13 +1597,13 @@
         <v>20</v>
       </c>
       <c r="K23" s="11">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="L23" s="12">
         <v>10.19</v>
       </c>
       <c r="M23" s="3"/>
-      <c r="N23" s="21">
+      <c r="N23" s="18">
         <v>20</v>
       </c>
       <c r="O23" s="11">
@@ -1612,9 +1612,9 @@
       <c r="P23" s="12">
         <v>10.19</v>
       </c>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
       <c r="T23" s="2"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -1637,7 +1637,7 @@
         <v>20</v>
       </c>
       <c r="M24" s="3"/>
-      <c r="N24" s="21">
+      <c r="N24" s="18">
         <v>21</v>
       </c>
       <c r="O24" s="11">
@@ -1646,9 +1646,9 @@
       <c r="P24" s="12">
         <v>20</v>
       </c>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
       <c r="T24" s="2"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -1671,7 +1671,7 @@
         <v>21</v>
       </c>
       <c r="M25" s="3"/>
-      <c r="N25" s="21">
+      <c r="N25" s="18">
         <v>22</v>
       </c>
       <c r="O25" s="11">
@@ -1680,9 +1680,9 @@
       <c r="P25" s="12">
         <v>21</v>
       </c>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
       <c r="T25" s="2"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -1705,7 +1705,7 @@
         <v>18.22</v>
       </c>
       <c r="M26" s="3"/>
-      <c r="N26" s="21">
+      <c r="N26" s="18">
         <v>23</v>
       </c>
       <c r="O26" s="11">
@@ -1714,9 +1714,9 @@
       <c r="P26" s="12">
         <v>18.22</v>
       </c>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
       <c r="T26" s="2"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -1733,13 +1733,13 @@
         <v>24</v>
       </c>
       <c r="K27" s="11">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L27" s="12">
         <v>8</v>
       </c>
       <c r="M27" s="3"/>
-      <c r="N27" s="21">
+      <c r="N27" s="18">
         <v>24</v>
       </c>
       <c r="O27" s="11">
@@ -1748,9 +1748,9 @@
       <c r="P27" s="12">
         <v>8</v>
       </c>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
       <c r="T27" s="2"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -1773,7 +1773,7 @@
         <v>24</v>
       </c>
       <c r="M28" s="3"/>
-      <c r="N28" s="21">
+      <c r="N28" s="18">
         <v>25</v>
       </c>
       <c r="O28" s="11">
@@ -1782,9 +1782,9 @@
       <c r="P28" s="12">
         <v>24</v>
       </c>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
       <c r="T28" s="2"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -1807,7 +1807,7 @@
         <v>25</v>
       </c>
       <c r="M29" s="3"/>
-      <c r="N29" s="21">
+      <c r="N29" s="18">
         <v>26</v>
       </c>
       <c r="O29" s="11">
@@ -1816,9 +1816,9 @@
       <c r="P29" s="12">
         <v>25</v>
       </c>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
       <c r="T29" s="2"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -1841,7 +1841,7 @@
         <v>26</v>
       </c>
       <c r="M30" s="3"/>
-      <c r="N30" s="21">
+      <c r="N30" s="18">
         <v>27</v>
       </c>
       <c r="O30" s="11">
@@ -1850,9 +1850,9 @@
       <c r="P30" s="12">
         <v>26</v>
       </c>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
       <c r="T30" s="2"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -1875,7 +1875,7 @@
         <v>27</v>
       </c>
       <c r="M31" s="3"/>
-      <c r="N31" s="23">
+      <c r="N31" s="20">
         <v>28</v>
       </c>
       <c r="O31" s="11">
@@ -1884,9 +1884,9 @@
       <c r="P31" s="12">
         <v>27</v>
       </c>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
       <c r="T31" s="2"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -1909,7 +1909,7 @@
         <v>28</v>
       </c>
       <c r="M32" s="3"/>
-      <c r="N32" s="21">
+      <c r="N32" s="18">
         <v>29</v>
       </c>
       <c r="O32" s="11">
@@ -1918,9 +1918,9 @@
       <c r="P32" s="12">
         <v>28</v>
       </c>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
       <c r="T32" s="2"/>
     </row>
     <row r="33" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1937,13 +1937,13 @@
         <v>30</v>
       </c>
       <c r="K33" s="13">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="L33" s="14" t="s">
         <v>4</v>
       </c>
       <c r="M33" s="3"/>
-      <c r="N33" s="21">
+      <c r="N33" s="18">
         <v>30</v>
       </c>
       <c r="O33" s="13">
@@ -1952,9 +1952,9 @@
       <c r="P33" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
       <c r="T33" s="2"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -1971,7 +1971,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="21">
+      <c r="N34" s="18">
         <v>31</v>
       </c>
       <c r="O34" s="9">
@@ -1999,7 +1999,7 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="21">
+      <c r="N35" s="18">
         <v>32</v>
       </c>
       <c r="O35" s="11">
@@ -2027,7 +2027,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="21">
+      <c r="N36" s="18">
         <v>33</v>
       </c>
       <c r="O36" s="11">
@@ -2055,7 +2055,7 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="21">
+      <c r="N37" s="18">
         <v>34</v>
       </c>
       <c r="O37" s="11">
@@ -2079,7 +2079,7 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="21">
+      <c r="N38" s="18">
         <v>35</v>
       </c>
       <c r="O38" s="11">
@@ -2103,7 +2103,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="21">
+      <c r="N39" s="18">
         <v>36</v>
       </c>
       <c r="O39" s="11">
@@ -2127,7 +2127,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="21">
+      <c r="N40" s="18">
         <v>37</v>
       </c>
       <c r="O40" s="11">
@@ -2151,7 +2151,7 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-      <c r="N41" s="21">
+      <c r="N41" s="18">
         <v>38</v>
       </c>
       <c r="O41" s="11">
@@ -2175,7 +2175,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="21">
+      <c r="N42" s="18">
         <v>39</v>
       </c>
       <c r="O42" s="11">
@@ -2199,11 +2199,11 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="N43" s="21">
+      <c r="N43" s="18">
         <v>40</v>
       </c>
       <c r="O43" s="13">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="P43" s="14" t="s">
         <v>10</v>
@@ -2223,7 +2223,7 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
-      <c r="N44" s="21">
+      <c r="N44" s="18">
         <v>41</v>
       </c>
       <c r="O44" s="9">
@@ -2247,7 +2247,7 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="21">
+      <c r="N45" s="18">
         <v>42</v>
       </c>
       <c r="O45" s="11">
@@ -2271,7 +2271,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-      <c r="N46" s="21">
+      <c r="N46" s="18">
         <v>43</v>
       </c>
       <c r="O46" s="11">
@@ -2295,7 +2295,7 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-      <c r="N47" s="21">
+      <c r="N47" s="18">
         <v>44</v>
       </c>
       <c r="O47" s="11">
@@ -2319,7 +2319,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="21">
+      <c r="N48" s="18">
         <v>45</v>
       </c>
       <c r="O48" s="11">
@@ -2343,7 +2343,7 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="21">
+      <c r="N49" s="18">
         <v>46</v>
       </c>
       <c r="O49" s="11">
@@ -2367,7 +2367,7 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="21">
+      <c r="N50" s="18">
         <v>47</v>
       </c>
       <c r="O50" s="11">
@@ -2391,7 +2391,7 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-      <c r="N51" s="21">
+      <c r="N51" s="18">
         <v>48</v>
       </c>
       <c r="O51" s="11">
@@ -2415,7 +2415,7 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
-      <c r="N52" s="21">
+      <c r="N52" s="18">
         <v>49</v>
       </c>
       <c r="O52" s="11">
@@ -2439,7 +2439,7 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
-      <c r="N53" s="21">
+      <c r="N53" s="18">
         <v>50</v>
       </c>
       <c r="O53" s="11">
@@ -2463,13 +2463,13 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
-      <c r="N54" s="21">
+      <c r="N54" s="18">
         <v>51</v>
       </c>
       <c r="O54" s="11">
         <v>40</v>
       </c>
-      <c r="P54" s="25">
+      <c r="P54" s="22">
         <v>49.5</v>
       </c>
     </row>
@@ -2487,7 +2487,7 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
-      <c r="N55" s="21">
+      <c r="N55" s="18">
         <v>52</v>
       </c>
       <c r="O55" s="11">
@@ -2511,7 +2511,7 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
-      <c r="N56" s="21">
+      <c r="N56" s="18">
         <v>53</v>
       </c>
       <c r="O56" s="11">
@@ -2535,7 +2535,7 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
-      <c r="N57" s="21">
+      <c r="N57" s="18">
         <v>54</v>
       </c>
       <c r="O57" s="11">
@@ -2559,7 +2559,7 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
-      <c r="N58" s="21">
+      <c r="N58" s="18">
         <v>55</v>
       </c>
       <c r="O58" s="11">
@@ -2583,7 +2583,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
-      <c r="N59" s="21">
+      <c r="N59" s="18">
         <v>56</v>
       </c>
       <c r="O59" s="11">
@@ -2607,7 +2607,7 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
-      <c r="N60" s="21">
+      <c r="N60" s="18">
         <v>57</v>
       </c>
       <c r="O60" s="11">
@@ -2631,7 +2631,7 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
-      <c r="N61" s="21">
+      <c r="N61" s="18">
         <v>58</v>
       </c>
       <c r="O61" s="11">
@@ -2655,7 +2655,7 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
-      <c r="N62" s="21">
+      <c r="N62" s="18">
         <v>59</v>
       </c>
       <c r="O62" s="11">
@@ -2679,11 +2679,11 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
-      <c r="N63" s="24">
+      <c r="N63" s="21">
         <v>60</v>
       </c>
       <c r="O63" s="13">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="P63" s="14" t="s">
         <v>11</v>
